--- a/trunk/Imobiliaria/Documentação/Iteração.xlsx
+++ b/trunk/Imobiliaria/Documentação/Iteração.xlsx
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -169,21 +169,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,64 +499,66 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>41046</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>41046</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -566,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -577,7 +580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -588,32 +591,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -750,13 +753,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
